--- a/manual_analysis/Workbook2.xlsx
+++ b/manual_analysis/Workbook2.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="out" localSheetId="0">Sheet1!$A$2:$C$62</definedName>
     <definedName name="out2_" localSheetId="1">Sheet2!$A$2:$C$26</definedName>
     <definedName name="out3_" localSheetId="2">Sheet3!$A$2:$C$242</definedName>
     <definedName name="out4_" localSheetId="3">Sheet4!$A$2:$C$2116</definedName>
+    <definedName name="out5_" localSheetId="4">Sheet5!$A$2:$C$62</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="out.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out.csv" thousands="'" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -39,7 +41,7 @@
     </textPr>
   </connection>
   <connection id="2" name="out2.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out2.csv" thousands="'" semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out2.csv" thousands="'" semicolon="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -48,7 +50,7 @@
     </textPr>
   </connection>
   <connection id="3" name="out3.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out3.csv" thousands="'" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out3.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -57,7 +59,16 @@
     </textPr>
   </connection>
   <connection id="4" name="out4.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out4.csv" thousands="'" semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:test_run_36:out4.csv" thousands="'" semicolon="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="out5.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:ethz-asl-testmaster-data:manual_analysis:out5.csv" thousands="'" semicolon="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -69,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>Mean</t>
   </si>
@@ -126,8 +137,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -140,15 +153,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,11 +413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2095642376"/>
-        <c:axId val="-2095480040"/>
+        <c:axId val="-2061616664"/>
+        <c:axId val="-2061613672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2095642376"/>
+        <c:axId val="-2061616664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095480040"/>
+        <c:crossAx val="-2061613672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -419,7 +434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095480040"/>
+        <c:axId val="-2061613672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095642376"/>
+        <c:crossAx val="-2061616664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6859,11 +6874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2068535736"/>
-        <c:axId val="-2068534328"/>
+        <c:axId val="-2062276984"/>
+        <c:axId val="-2062279992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2068535736"/>
+        <c:axId val="-2062276984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6872,7 +6887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068534328"/>
+        <c:crossAx val="-2062279992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6880,7 +6895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068534328"/>
+        <c:axId val="-2062279992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,7 +6906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068535736"/>
+        <c:crossAx val="-2062276984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13320,11 +13335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065998312"/>
-        <c:axId val="-2066035192"/>
+        <c:axId val="-2062328520"/>
+        <c:axId val="-2062331480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065998312"/>
+        <c:axId val="-2062328520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13333,7 +13348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066035192"/>
+        <c:crossAx val="-2062331480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13341,7 +13356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066035192"/>
+        <c:axId val="-2062331480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13352,7 +13367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065998312"/>
+        <c:crossAx val="-2062328520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19781,11 +19796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046619768"/>
-        <c:axId val="-2048085672"/>
+        <c:axId val="-2059753048"/>
+        <c:axId val="-2059750056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046619768"/>
+        <c:axId val="-2059753048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19794,7 +19809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2048085672"/>
+        <c:crossAx val="-2059750056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19802,7 +19817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2048085672"/>
+        <c:axId val="-2059750056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19813,7 +19828,895 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046619768"/>
+        <c:crossAx val="-2059753048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>6.2500779220779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.36395066342738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.89180257968232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.29822989020836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.25941230486686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.08262169086252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.64912963143054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.01459854014598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.93658020116464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.53334095848106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.11651868902772</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.81398963730571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.56397205588823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.58925143953935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.34028571428569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.61468417521327</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.23337233372335</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.51389585632586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.91422879312151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.69124565350789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.56229653743712</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.69828602521085</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.22853688029019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.28034782608695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.14798168249661</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.26289734236581</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.42349750677981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.56701649175412</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.75792935186166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.24341675734495</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.95156418554476</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.81947596451412</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.62829179699323</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.33133595284872</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.9235708367854</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.73264807653166</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.29901582400619</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.55413430790314</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.15704082532404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.29516493447809</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.35021404499498</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.24006592199233</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.89458345894885</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.0261995583216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.52139800285307</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7250354466275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.99030969030969</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.35952153110049</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.53283481928867</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.17819610710043</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.29397611833897</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.13940666841691</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.41291776928353</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.80962846677133</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.58567193675888</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.42580771874694</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.34908894100667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3842197204969</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.98197064989518</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.69464869281045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2061460920"/>
+        <c:axId val="-2046329608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2061460920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2046329608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2046329608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2061460920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>18.2399275188651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.30757986785797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.936373093643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.4842702557174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.6560358387098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.1703908200343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.67672239935831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0367868613143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.9105264231789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.6952678003432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.10689987212978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.36958352150127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.02415349956842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.03292025734078</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.12288400255806</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.26888711506535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.47883578205753</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.16695017297767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.8722566225637</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.88655729036946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.8189532100038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7242152735238</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.26637068698826</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.21220615781365</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.39842014791323</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.8833674754328</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.74898062726876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.87088319095096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5749623149746</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.3013904357204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.6026812298303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.8891037798318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.89148607266609</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.21165181560491</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.6993884285369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.242103460259569</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.28807777298124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.5270628127343</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.95196739771611</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.32628265762777</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.75791829085404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.4688716374445</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.2106952812518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.3746774335177</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.10506536425093</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.02131786058856</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>263.321616549107</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.95935281918387</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.10877316149431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.6063350019324</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.58953504906854</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.64545117952097</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.73744142697604</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.04047667794148</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.4995278615335</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.1142897006007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.58926709953175</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.10976163511107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24.4114581142434</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.0766009183441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2052393192"/>
+        <c:axId val="-2059898696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2052393192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2059898696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2059898696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2052393192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>9625.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10702.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9381.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8926.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8712.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9368.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10283.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10001.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9445.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8743.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9123.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9650.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10020.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10420.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10433.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11111.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9967.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9537.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9778.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10137.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11027.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10751.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11792.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11514.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11431.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10005.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9427.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9190.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9270.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9694.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9911.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10180.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9656.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9826.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10364.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10945.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11341.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11065.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10979.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10922.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9951.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9962.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9814.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9874.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10010.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10450.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10431.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10943.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11222.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11427.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10203.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9555.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10120.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10183.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11086.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10304.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9540.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9792.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2045238920"/>
+        <c:axId val="-2045423752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2045238920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2045423752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2045423752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2045238920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20077,11 +20980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2111626920"/>
-        <c:axId val="-2094831672"/>
+        <c:axId val="-2061580248"/>
+        <c:axId val="-2061577304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2111626920"/>
+        <c:axId val="-2061580248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20090,7 +20993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094831672"/>
+        <c:crossAx val="-2061577304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20098,7 +21001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094831672"/>
+        <c:axId val="-2061577304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20109,7 +21012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111626920"/>
+        <c:crossAx val="-2061580248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20373,11 +21276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2108804072"/>
-        <c:axId val="-2108789336"/>
+        <c:axId val="-2061550968"/>
+        <c:axId val="-2061548024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2108804072"/>
+        <c:axId val="-2061550968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20386,7 +21289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108789336"/>
+        <c:crossAx val="-2061548024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20394,7 +21297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108789336"/>
+        <c:axId val="-2061548024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20405,7 +21308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108804072"/>
+        <c:crossAx val="-2061550968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20561,11 +21464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094183608"/>
-        <c:axId val="2110677160"/>
+        <c:axId val="-2062095944"/>
+        <c:axId val="-2062098904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094183608"/>
+        <c:axId val="-2062095944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20574,7 +21477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110677160"/>
+        <c:crossAx val="-2062098904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20582,7 +21485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110677160"/>
+        <c:axId val="-2062098904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20593,7 +21496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094183608"/>
+        <c:crossAx val="-2062095944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20749,11 +21652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109720952"/>
-        <c:axId val="-2109450200"/>
+        <c:axId val="-2062125592"/>
+        <c:axId val="-2062128552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109720952"/>
+        <c:axId val="-2062125592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20762,7 +21665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109450200"/>
+        <c:crossAx val="-2062128552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20770,7 +21673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109450200"/>
+        <c:axId val="-2062128552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -20782,7 +21685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109720952"/>
+        <c:crossAx val="-2062125592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20938,11 +21841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2061984728"/>
-        <c:axId val="-2089616504"/>
+        <c:axId val="-2062154232"/>
+        <c:axId val="-2062157192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2061984728"/>
+        <c:axId val="-2062154232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20951,7 +21854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089616504"/>
+        <c:crossAx val="-2062157192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20959,7 +21862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089616504"/>
+        <c:axId val="-2062157192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140.0"/>
@@ -20971,7 +21874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061984728"/>
+        <c:crossAx val="-2062154232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21008,7 +21911,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21775,11 +22677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078717256"/>
-        <c:axId val="-2078715848"/>
+        <c:axId val="-2062196152"/>
+        <c:axId val="-2062199112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078717256"/>
+        <c:axId val="-2062196152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21788,7 +22690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078715848"/>
+        <c:crossAx val="-2062199112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21796,7 +22698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078715848"/>
+        <c:axId val="-2062199112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21807,14 +22709,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078717256"/>
+        <c:crossAx val="-2062196152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -21844,7 +22745,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22611,11 +23511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2076481432"/>
-        <c:axId val="-2108580920"/>
+        <c:axId val="-2062227640"/>
+        <c:axId val="-2062230600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2076481432"/>
+        <c:axId val="-2062227640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22624,7 +23524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108580920"/>
+        <c:crossAx val="-2062230600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22632,7 +23532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108580920"/>
+        <c:axId val="-2062230600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22643,14 +23543,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076481432"/>
+        <c:crossAx val="-2062227640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -22680,7 +23579,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23447,11 +24345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131150616"/>
-        <c:axId val="-2131664296"/>
+        <c:axId val="-2062256408"/>
+        <c:axId val="-2062259368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131150616"/>
+        <c:axId val="-2062256408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23460,7 +24358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131664296"/>
+        <c:crossAx val="-2062259368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23468,7 +24366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131664296"/>
+        <c:axId val="-2062259368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23479,14 +24377,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131150616"/>
+        <c:crossAx val="-2062256408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23505,16 +24402,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23881,6 +24778,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="out" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -23895,6 +24887,10 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="out4" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="out5" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24221,8 +25217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24918,7 +25914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -27896,8 +28892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -51173,6 +52169,703 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>6.2500779220779004</v>
+      </c>
+      <c r="B2">
+        <v>18.239927518865102</v>
+      </c>
+      <c r="C2">
+        <v>9625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5.3639506634273797</v>
+      </c>
+      <c r="B3">
+        <v>4.30757986785797</v>
+      </c>
+      <c r="C3">
+        <v>10702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>5.8918025796823201</v>
+      </c>
+      <c r="B4">
+        <v>12.936373093643001</v>
+      </c>
+      <c r="C4">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>6.2982298902083604</v>
+      </c>
+      <c r="B5">
+        <v>20.484270255717401</v>
+      </c>
+      <c r="C5">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6.25941230486686</v>
+      </c>
+      <c r="B6">
+        <v>31.656035838709801</v>
+      </c>
+      <c r="C6">
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6.0826216908625197</v>
+      </c>
+      <c r="B7">
+        <v>18.170390820034299</v>
+      </c>
+      <c r="C7">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5.6491296314305401</v>
+      </c>
+      <c r="B8">
+        <v>3.6767223993583098</v>
+      </c>
+      <c r="C8">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6.0145985401459798</v>
+      </c>
+      <c r="B9">
+        <v>64.036786861314297</v>
+      </c>
+      <c r="C9">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5.9365802011646398</v>
+      </c>
+      <c r="B10">
+        <v>10.910526423178901</v>
+      </c>
+      <c r="C10">
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6.5333409584810598</v>
+      </c>
+      <c r="B11">
+        <v>27.695267800343199</v>
+      </c>
+      <c r="C11">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6.1165186890277203</v>
+      </c>
+      <c r="B12">
+        <v>8.1068998721297802</v>
+      </c>
+      <c r="C12">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>5.8139896373057098</v>
+      </c>
+      <c r="B13">
+        <v>5.3695835215012702</v>
+      </c>
+      <c r="C13">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>5.5639720558882297</v>
+      </c>
+      <c r="B14">
+        <v>4.0241534995684196</v>
+      </c>
+      <c r="C14">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>5.5892514395393498</v>
+      </c>
+      <c r="B15">
+        <v>5.0329202573407796</v>
+      </c>
+      <c r="C15">
+        <v>10420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>5.3402857142856899</v>
+      </c>
+      <c r="B16">
+        <v>3.12288400255806</v>
+      </c>
+      <c r="C16">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>5.6146841752132701</v>
+      </c>
+      <c r="B17">
+        <v>9.2688871150653505</v>
+      </c>
+      <c r="C17">
+        <v>10433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>5.2333723337233504</v>
+      </c>
+      <c r="B18">
+        <v>3.47883578205753</v>
+      </c>
+      <c r="C18">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>5.5138958563258598</v>
+      </c>
+      <c r="B19">
+        <v>4.1669501729776703</v>
+      </c>
+      <c r="C19">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>5.9142287931215103</v>
+      </c>
+      <c r="B20">
+        <v>15.8722566225637</v>
+      </c>
+      <c r="C20">
+        <v>9537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>5.6912456535078899</v>
+      </c>
+      <c r="B21">
+        <v>9.8865572903694598</v>
+      </c>
+      <c r="C21">
+        <v>9778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>5.5622965374371196</v>
+      </c>
+      <c r="B22">
+        <v>47.818953210003798</v>
+      </c>
+      <c r="C22">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>5.6982860252108498</v>
+      </c>
+      <c r="B23">
+        <v>4.7242152735238001</v>
+      </c>
+      <c r="C23">
+        <v>11027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>5.2285368802901901</v>
+      </c>
+      <c r="B24">
+        <v>4.2663706869882603</v>
+      </c>
+      <c r="C24">
+        <v>10751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>5.2803478260869499</v>
+      </c>
+      <c r="B25">
+        <v>4.2122061578136503</v>
+      </c>
+      <c r="C25">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>5.14798168249661</v>
+      </c>
+      <c r="B26">
+        <v>3.3984201479132299</v>
+      </c>
+      <c r="C26">
+        <v>11792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>5.2628973423658101</v>
+      </c>
+      <c r="B27">
+        <v>15.8833674754328</v>
+      </c>
+      <c r="C27">
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>5.4234975067798104</v>
+      </c>
+      <c r="B28">
+        <v>5.74898062726876</v>
+      </c>
+      <c r="C28">
+        <v>11431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>5.5670164917541198</v>
+      </c>
+      <c r="B29">
+        <v>4.87088319095096</v>
+      </c>
+      <c r="C29">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>5.7579293518616597</v>
+      </c>
+      <c r="B30">
+        <v>5.5749623149746004</v>
+      </c>
+      <c r="C30">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>6.2434167573449502</v>
+      </c>
+      <c r="B31">
+        <v>39.3013904357204</v>
+      </c>
+      <c r="C31">
+        <v>9190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>5.9515641855447603</v>
+      </c>
+      <c r="B32">
+        <v>27.602681229830299</v>
+      </c>
+      <c r="C32">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>5.8194759645141199</v>
+      </c>
+      <c r="B33">
+        <v>28.8891037798318</v>
+      </c>
+      <c r="C33">
+        <v>9694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>5.6282917969932296</v>
+      </c>
+      <c r="B34">
+        <v>4.8914860726660896</v>
+      </c>
+      <c r="C34">
+        <v>9911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>5.3313359528487201</v>
+      </c>
+      <c r="B35">
+        <v>3.2116518156049101</v>
+      </c>
+      <c r="C35">
+        <v>10180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>5.9235708367853999</v>
+      </c>
+      <c r="B36">
+        <v>47.699388428536899</v>
+      </c>
+      <c r="C36">
+        <v>9656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>5.7326480765316603</v>
+      </c>
+      <c r="B37">
+        <v>8.2421034602595693</v>
+      </c>
+      <c r="C37">
+        <v>9826</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>5.2990158240061902</v>
+      </c>
+      <c r="B38">
+        <v>3.2880777729812398</v>
+      </c>
+      <c r="C38">
+        <v>10364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>5.5541343079031398</v>
+      </c>
+      <c r="B39">
+        <v>13.5270628127343</v>
+      </c>
+      <c r="C39">
+        <v>10945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>5.1570408253240396</v>
+      </c>
+      <c r="B40">
+        <v>7.9519673977161096</v>
+      </c>
+      <c r="C40">
+        <v>11341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>5.2951649344780902</v>
+      </c>
+      <c r="B41">
+        <v>5.32628265762777</v>
+      </c>
+      <c r="C41">
+        <v>11065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>5.3502140449949804</v>
+      </c>
+      <c r="B42">
+        <v>3.7579182908540401</v>
+      </c>
+      <c r="C42">
+        <v>10979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>5.24006592199233</v>
+      </c>
+      <c r="B43">
+        <v>26.468871637444501</v>
+      </c>
+      <c r="C43">
+        <v>10922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>5.8945834589488504</v>
+      </c>
+      <c r="B44">
+        <v>30.210695281251802</v>
+      </c>
+      <c r="C44">
+        <v>9951</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>6.0261995583215997</v>
+      </c>
+      <c r="B45">
+        <v>54.374677433517697</v>
+      </c>
+      <c r="C45">
+        <v>9962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>5.5213980028530703</v>
+      </c>
+      <c r="B46">
+        <v>4.1050653642509296</v>
+      </c>
+      <c r="C46">
+        <v>9814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>5.7250354466275004</v>
+      </c>
+      <c r="B47">
+        <v>6.0213178605885602</v>
+      </c>
+      <c r="C47">
+        <v>9874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>5.9903096903096902</v>
+      </c>
+      <c r="B48">
+        <v>263.32161654910698</v>
+      </c>
+      <c r="C48">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>5.3595215311004898</v>
+      </c>
+      <c r="B49">
+        <v>2.9593528191838701</v>
+      </c>
+      <c r="C49">
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>5.53283481928867</v>
+      </c>
+      <c r="B50">
+        <v>5.1087731614943097</v>
+      </c>
+      <c r="C50">
+        <v>10431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>5.1781961071004297</v>
+      </c>
+      <c r="B51">
+        <v>21.606335001932401</v>
+      </c>
+      <c r="C51">
+        <v>10943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>5.2939761183389704</v>
+      </c>
+      <c r="B52">
+        <v>4.58953504906854</v>
+      </c>
+      <c r="C52">
+        <v>11222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>5.1394066684169104</v>
+      </c>
+      <c r="B53">
+        <v>8.6454511795209701</v>
+      </c>
+      <c r="C53">
+        <v>11427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>5.4129177692835304</v>
+      </c>
+      <c r="B54">
+        <v>3.7374414269760399</v>
+      </c>
+      <c r="C54">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>5.80962846677133</v>
+      </c>
+      <c r="B55">
+        <v>6.0404766779414798</v>
+      </c>
+      <c r="C55">
+        <v>9555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>5.5856719367588799</v>
+      </c>
+      <c r="B56">
+        <v>17.499527861533501</v>
+      </c>
+      <c r="C56">
+        <v>10120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>5.42580771874694</v>
+      </c>
+      <c r="B57">
+        <v>4.1142897006007004</v>
+      </c>
+      <c r="C57">
+        <v>10183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>5.34908894100667</v>
+      </c>
+      <c r="B58">
+        <v>5.5892670995317504</v>
+      </c>
+      <c r="C58">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>5.3842197204969002</v>
+      </c>
+      <c r="B59">
+        <v>5.1097616351110702</v>
+      </c>
+      <c r="C59">
+        <v>10304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>5.9819706498951799</v>
+      </c>
+      <c r="B60">
+        <v>24.411458114243398</v>
+      </c>
+      <c r="C60">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>5.6946486928104498</v>
+      </c>
+      <c r="B61">
+        <v>17.076600918344099</v>
+      </c>
+      <c r="C61">
+        <v>9792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
